--- a/storage/aging-rate-2022.xlsx
+++ b/storage/aging-rate-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>AGING RATE</t>
   </si>
@@ -24,6 +24,78 @@
   </si>
   <si>
     <t>Kualitas AR</t>
+  </si>
+  <si>
+    <t>Jan 21</t>
+  </si>
+  <si>
+    <t>Feb 21</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>Apr 21</t>
+  </si>
+  <si>
+    <t>Mei 21</t>
+  </si>
+  <si>
+    <t>Jun 21</t>
+  </si>
+  <si>
+    <t>Jul 21</t>
+  </si>
+  <si>
+    <t>Ags 21</t>
+  </si>
+  <si>
+    <t>Sep 21</t>
+  </si>
+  <si>
+    <t>Okt 21</t>
+  </si>
+  <si>
+    <t>Nov 21</t>
+  </si>
+  <si>
+    <t>Des 21</t>
+  </si>
+  <si>
+    <t>Jan 22</t>
+  </si>
+  <si>
+    <t>Feb 22</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Apr 22</t>
+  </si>
+  <si>
+    <t>Mei 22</t>
+  </si>
+  <si>
+    <t>Jun 22</t>
+  </si>
+  <si>
+    <t>Jul 22</t>
+  </si>
+  <si>
+    <t>Ags 22</t>
+  </si>
+  <si>
+    <t>Sep 22</t>
+  </si>
+  <si>
+    <t>Okt 22</t>
+  </si>
+  <si>
+    <t>Nov 22</t>
+  </si>
+  <si>
+    <t>Des 22</t>
   </si>
   <si>
     <t>0-30</t>
@@ -189,6 +261,9 @@
   </si>
   <si>
     <t>Berdasarkan pengalaman, LGD (kerugian) yang akan terjadi setelah AR masuk kategori kualitas "macet" adalah 100% karena tagihan tidak mempunyai jaminan (collateral)</t>
+  </si>
+  <si>
+    <t>STEP #1 isi angka kualitas AR dari bulan Januari 2021  -  Aug 2022</t>
   </si>
 </sst>
 </file>
@@ -356,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -494,6 +569,9 @@
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +875,7 @@
   <dimension ref="A1:WWI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16967,6 +17045,11 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
+    <row r="2" spans="1:16155">
+      <c r="B2" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="3" spans="1:16155" customHeight="1" ht="30">
       <c r="A3" s="2" t="s">
         <v>1</v>
@@ -16974,215 +17057,549 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:16155" customHeight="1" ht="15">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2833916402.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1776552000.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1916929500.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1768229500.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1605553500.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1407329000.0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1766523500.0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1601586000.0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1973048000.0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1801948253.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2165603170.0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3266914000.0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3099436000.0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1959265497.0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2085674829.0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1958391500.0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1760583500.0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1823310500.0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1668190000.0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" spans="1:16155" customHeight="1" ht="15">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>390328000.0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1259051309.0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1280661290.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1266510332.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1269673874.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1321109791.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>425889000.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>419509500.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>406059000.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>460200280.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>375903260.0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>261722880.0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>286639760.0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1301390880.0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1301855380.0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1299214209.0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1331971373.0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1334159493.0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>521867993.0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:16155" customHeight="1" ht="15">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <v>287074214.0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>267064214.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>204898714.0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>135838714.0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>88033714.0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>33941000.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>926181208.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>959485125.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>993850922.0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>297843104.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>188655645.0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>196467900.0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>161462520.0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>162240380.0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>162915880.0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>102910880.0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>57485880.0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>77503880.0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>917819380.0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7" spans="1:16155" customHeight="1" ht="15">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1163587978.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1184682478.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1216749958.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1204190958.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1222231954.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1267809168.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1276914168.0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1278267168.0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1275856168.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1911811156.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2080043115.0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1162702740.0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1173546740.0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1102667760.0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1146793760.0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1201370760.0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1241660760.0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1277870640.0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1234379140.0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" spans="1:16155">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="D8" s="12">
+        <v>21094500.0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>32067480.0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>-12559000.0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>18040996.0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45577214.0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>9105000.0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1353000.0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-2411000.0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>635954988.0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>168231959.0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>-917340375.0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>10844000.0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>-70878980.0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>44126000.0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>54577000.0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>40290000.0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>36209880.0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>-43491500.0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>-1234379140.0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:16155" customHeight="1" ht="15" s="13" customFormat="1">
       <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4674906594.0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4487350001.0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4619239462.0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4374769504.0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4185493042.0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4030188959.0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>4395507876.0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>4258847793.0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>4648814090.0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>4471802793.0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>4810205190.0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>4887807520.0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>4721085020.0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>4525564517.0</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4697239849.0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>4561887349.0</v>
+      </c>
+      <c r="S9" s="15">
+        <v>4391701513.0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>4512844513.0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>4342256513.0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10" spans="1:16155">
       <c r="B10" s="16"/>
@@ -17247,95 +17664,239 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="21" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16155" customHeight="1" ht="30.75">
       <c r="B13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44.4279622402</v>
+      </c>
+      <c r="D13" s="23">
+        <v>72.0869014811</v>
+      </c>
+      <c r="E13" s="23">
+        <v>66.0697397583</v>
+      </c>
+      <c r="F13" s="23">
+        <v>71.8048123278</v>
+      </c>
+      <c r="G13" s="23">
+        <v>82.2837601488</v>
+      </c>
+      <c r="H13" s="23">
+        <v>30.2622201347</v>
+      </c>
+      <c r="I13" s="23">
+        <v>23.7477452182</v>
+      </c>
+      <c r="J13" s="23">
+        <v>25.3535557878</v>
+      </c>
+      <c r="K13" s="23">
+        <v>23.3243327076</v>
+      </c>
+      <c r="L13" s="23">
+        <v>20.8609353445</v>
+      </c>
+      <c r="M13" s="23">
+        <v>12.0854496163</v>
+      </c>
+      <c r="N13" s="23">
+        <v>8.7740222118</v>
+      </c>
+      <c r="O13" s="23">
+        <v>41.987990073</v>
+      </c>
+      <c r="P13" s="23">
+        <v>66.4460932933</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>62.2922706328</v>
+      </c>
+      <c r="R13" s="23">
+        <v>68.0135393255</v>
+      </c>
+      <c r="S13" s="23">
+        <v>75.7793931955</v>
+      </c>
+      <c r="T13" s="23">
+        <v>28.6220033834</v>
+      </c>
+      <c r="U13" s="23">
+        <v>53.2270750818</v>
+      </c>
+      <c r="V13" s="23">
+        <v>53.2270750818</v>
+      </c>
+      <c r="W13" s="23">
+        <v>99.9999999999</v>
+      </c>
+      <c r="X13" s="23">
+        <v>99.9999999999</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>99.9999999999</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14" spans="1:16155" customHeight="1" ht="30.75">
       <c r="B14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="23">
+        <v>8.6955073682</v>
+      </c>
+      <c r="D14" s="23">
+        <v>73.5618319428</v>
+      </c>
+      <c r="E14" s="23">
+        <v>74.9210687082</v>
+      </c>
+      <c r="F14" s="23">
+        <v>78.4716000248</v>
+      </c>
+      <c r="G14" s="23">
+        <v>23.4582368039</v>
+      </c>
+      <c r="H14" s="23">
+        <v>14.2800883231</v>
+      </c>
+      <c r="I14" s="23">
+        <v>46.1312454654</v>
+      </c>
+      <c r="J14" s="23">
+        <v>38.4884061028</v>
+      </c>
+      <c r="K14" s="23">
+        <v>39.9548784783</v>
+      </c>
+      <c r="L14" s="23">
+        <v>35.4010823288</v>
+      </c>
+      <c r="M14" s="23">
+        <v>27.3769586356</v>
+      </c>
+      <c r="N14" s="23">
+        <v>21.9644075443</v>
+      </c>
+      <c r="O14" s="23">
+        <v>27.0387750813</v>
+      </c>
+      <c r="P14" s="23">
+        <v>70.5260344225</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="T14" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="23">
+        <v>30.5405326963</v>
+      </c>
+      <c r="V14" s="24">
+        <v>30.5405326963</v>
+      </c>
+      <c r="W14" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="X14" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15" spans="1:16155" customHeight="1" ht="30.75">
       <c r="B15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="23">
+        <v>6.7553026779</v>
+      </c>
+      <c r="E15" s="23">
+        <v>22.2437774792</v>
+      </c>
+      <c r="F15" s="23">
+        <v>6.7028019715</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.5369111884</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="23">
+        <v>68.6642076633</v>
+      </c>
+      <c r="J15" s="23">
+        <v>17.5335661405</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>3.6408430662</v>
+      </c>
+      <c r="M15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="23">
+        <v>22.4596486245</v>
+      </c>
+      <c r="O15" s="23">
+        <v>33.8016525445</v>
+      </c>
+      <c r="P15" s="23">
+        <v>24.8335217164</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>22.2261206213</v>
+      </c>
+      <c r="R15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="23">
+        <v>10.9713501759</v>
+      </c>
+      <c r="V15" s="23">
+        <v>10.9713501759</v>
+      </c>
+      <c r="W15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="X15" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" spans="1:16155" customHeight="1" ht="45">
       <c r="A18" s="27"/>
@@ -17343,23 +17904,23 @@
         <v>2</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
@@ -17370,7 +17931,7 @@
     </row>
     <row r="19" spans="1:16155" customHeight="1" ht="18">
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="29"/>
@@ -17389,7 +17950,7 @@
     </row>
     <row r="20" spans="1:16155" customHeight="1" ht="18">
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -17404,7 +17965,7 @@
     </row>
     <row r="21" spans="1:16155" customHeight="1" ht="18">
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -17419,7 +17980,7 @@
     </row>
     <row r="22" spans="1:16155" customHeight="1" ht="18">
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -17475,10 +18036,10 @@
     <row r="27" spans="1:16155">
       <c r="A27" s="25"/>
       <c r="B27" s="41" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>

--- a/storage/aging-rate-2022.xlsx
+++ b/storage/aging-rate-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>AGING RATE</t>
   </si>
@@ -240,21 +240,6 @@
       </rPr>
       <t xml:space="preserve"> Macet</t>
     </r>
-  </si>
-  <si>
-    <t>Probability Default (PD)</t>
-  </si>
-  <si>
-    <t>Loss Given Default (LGD)*</t>
-  </si>
-  <si>
-    <t>Tarif Penyisihan (%)</t>
-  </si>
-  <si>
-    <t>Saldo Piutang</t>
-  </si>
-  <si>
-    <t>alokasi sisih</t>
   </si>
   <si>
     <t>LGD*</t>
@@ -17047,7 +17032,7 @@
     </row>
     <row r="2" spans="1:16155">
       <c r="B2" s="46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16155" customHeight="1" ht="30">
@@ -17903,30 +17888,77 @@
       <c r="B18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="C18" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="T18" s="13">
-        <v>106682896622</v>
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.78348428</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.78348428</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:16155" customHeight="1" ht="18">
@@ -18036,10 +18068,10 @@
     <row r="27" spans="1:16155">
       <c r="A27" s="25"/>
       <c r="B27" s="41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>

--- a/storage/aging-rate-2022.xlsx
+++ b/storage/aging-rate-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>AGING RATE</t>
   </si>
@@ -240,6 +240,21 @@
       </rPr>
       <t xml:space="preserve"> Macet</t>
     </r>
+  </si>
+  <si>
+    <t>Probability Default (PD)</t>
+  </si>
+  <si>
+    <t>Loss Given Default (LGD)*</t>
+  </si>
+  <si>
+    <t>Tarif Penyisihan (%)</t>
+  </si>
+  <si>
+    <t>Saldo Piutang</t>
+  </si>
+  <si>
+    <t>alokasi sisih</t>
   </si>
   <si>
     <t>LGD*</t>
@@ -17032,7 +17047,7 @@
     </row>
     <row r="2" spans="1:16155">
       <c r="B2" s="46" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16155" customHeight="1" ht="30">
@@ -17888,77 +17903,30 @@
       <c r="B18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>5.07</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="T18" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1.78348428</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1.78348428</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0.0</v>
+        <v>106682896622</v>
       </c>
     </row>
     <row r="19" spans="1:16155" customHeight="1" ht="18">
@@ -17966,7 +17934,9 @@
         <v>28</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="29">
+        <v>1.78348428</v>
+      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -17985,7 +17955,9 @@
         <v>30</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="23">
+        <v>3.3507087877</v>
+      </c>
       <c r="E20" s="23"/>
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
@@ -18000,7 +17972,9 @@
         <v>32</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="23">
+        <v>10.9713501759</v>
+      </c>
       <c r="E21" s="23"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
@@ -18068,10 +18042,10 @@
     <row r="27" spans="1:16155">
       <c r="A27" s="25"/>
       <c r="B27" s="41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>

--- a/storage/aging-rate-2022.xlsx
+++ b/storage/aging-rate-2022.xlsx
@@ -263,7 +263,7 @@
     <t>Berdasarkan pengalaman, LGD (kerugian) yang akan terjadi setelah AR masuk kategori kualitas "macet" adalah 100% karena tagihan tidak mempunyai jaminan (collateral)</t>
   </si>
   <si>
-    <t>STEP #1 isi angka kualitas AR dari bulan Januari 2021  -  Aug 2022</t>
+    <t>STEP #1 isi angka kualitas AR dari bulan Januari 2021  -  Sep 2022</t>
   </si>
 </sst>
 </file>
@@ -17195,7 +17195,7 @@
         <v>1668190000.0</v>
       </c>
       <c r="V4" s="6">
-        <v>0.0</v>
+        <v>1865514000.0</v>
       </c>
       <c r="W4" s="6">
         <v>0.0</v>
@@ -17275,7 +17275,7 @@
         <v>521867993.0</v>
       </c>
       <c r="V5" s="6">
-        <v>0.0</v>
+        <v>526249500.0</v>
       </c>
       <c r="W5" s="6">
         <v>0.0</v>
@@ -17355,7 +17355,7 @@
         <v>917819380.0</v>
       </c>
       <c r="V6" s="6">
-        <v>0.0</v>
+        <v>977393380.0</v>
       </c>
       <c r="W6" s="6">
         <v>0.0</v>
@@ -17435,7 +17435,7 @@
         <v>1234379140.0</v>
       </c>
       <c r="V7" s="6">
-        <v>0.0</v>
+        <v>1442604640.0</v>
       </c>
       <c r="W7" s="6">
         <v>0.0</v>
@@ -17451,71 +17451,73 @@
       </c>
     </row>
     <row r="8" spans="1:16155">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="12">
         <v>21094500.0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="F8" s="12">
         <v>32067480.0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="12">
         <v>-12559000.0</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H8" s="12">
         <v>18040996.0</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>45577214.0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>9105000.0</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>1353000.0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <v>-2411000.0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>635954988.0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>168231959.0</v>
       </c>
-      <c r="N8" s="12">
+      <c r="O8" s="12">
         <v>-917340375.0</v>
       </c>
-      <c r="O8" s="12">
+      <c r="P8" s="12">
         <v>10844000.0</v>
       </c>
-      <c r="P8" s="12">
+      <c r="Q8" s="12">
         <v>-70878980.0</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="R8" s="12">
         <v>44126000.0</v>
       </c>
-      <c r="R8" s="12">
+      <c r="S8" s="12">
         <v>54577000.0</v>
       </c>
-      <c r="S8" s="12">
+      <c r="T8" s="12">
         <v>40290000.0</v>
       </c>
-      <c r="T8" s="12">
+      <c r="U8" s="12">
         <v>36209880.0</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <v>-43491500.0</v>
       </c>
-      <c r="V8" s="12">
-        <v>-1234379140.0</v>
-      </c>
       <c r="W8" s="12">
-        <v>0.0</v>
+        <v>208225500.0</v>
       </c>
       <c r="X8" s="12">
-        <v>0.0</v>
+        <v>-1442604640.0</v>
       </c>
       <c r="Y8" s="12">
         <v>0.0</v>
@@ -17586,7 +17588,7 @@
         <v>4342256513.0</v>
       </c>
       <c r="V9" s="15">
-        <v>0.0</v>
+        <v>4811761520.0</v>
       </c>
       <c r="W9" s="15">
         <v>0.0</v>
@@ -17726,13 +17728,13 @@
         <v>28.6220033834</v>
       </c>
       <c r="U13" s="23">
-        <v>53.2270750818</v>
+        <v>28.7407305523</v>
       </c>
       <c r="V13" s="23">
-        <v>53.2270750818</v>
+        <v>0.0</v>
       </c>
       <c r="W13" s="23">
-        <v>99.9999999999</v>
+        <v>50.2508201614</v>
       </c>
       <c r="X13" s="23">
         <v>99.9999999999</v>
@@ -17741,7 +17743,7 @@
         <v>99.9999999999</v>
       </c>
       <c r="Z13" s="23">
-        <v>0.0</v>
+        <v>50.1288459753</v>
       </c>
     </row>
     <row r="14" spans="1:16155" customHeight="1" ht="30.75">
@@ -17791,7 +17793,7 @@
         <v>70.5260344225</v>
       </c>
       <c r="Q14" s="23">
-        <v>0.0</v>
+        <v>75.0769551684</v>
       </c>
       <c r="R14" s="23">
         <v>0.0</v>
@@ -17803,13 +17805,13 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="23">
-        <v>30.5405326963</v>
+        <v>0.0</v>
       </c>
       <c r="V14" s="24">
-        <v>30.5405326963</v>
+        <v>0.0</v>
       </c>
       <c r="W14" s="24">
-        <v>0.0</v>
+        <v>34.4919513894</v>
       </c>
       <c r="X14" s="24">
         <v>0.0</v>
@@ -17818,7 +17820,7 @@
         <v>0.0</v>
       </c>
       <c r="Z14" s="23">
-        <v>0.0</v>
+        <v>34.4919513894</v>
       </c>
     </row>
     <row r="15" spans="1:16155" customHeight="1" ht="30.75">
@@ -17874,19 +17876,19 @@
         <v>0.0</v>
       </c>
       <c r="S15" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T15" s="23">
         <v>0.0</v>
       </c>
       <c r="U15" s="23">
-        <v>10.9713501759</v>
+        <v>0.0</v>
       </c>
       <c r="V15" s="23">
-        <v>10.9713501759</v>
+        <v>0.0</v>
       </c>
       <c r="W15" s="23">
-        <v>0.0</v>
+        <v>11.0189692235</v>
       </c>
       <c r="X15" s="24">
         <v>0.0</v>
@@ -17895,7 +17897,7 @@
         <v>0.0</v>
       </c>
       <c r="Z15" s="23">
-        <v>0.0</v>
+        <v>11.0189692235</v>
       </c>
     </row>
     <row r="18" spans="1:16155" customHeight="1" ht="45">
@@ -17935,7 +17937,7 @@
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="29">
-        <v>1.78348428</v>
+        <v>1.90986157</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>
@@ -17956,7 +17958,7 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23">
-        <v>3.3507087877</v>
+        <v>3.8006575082</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="30"/>
@@ -17972,9 +17974,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="23">
-        <v>10.9713501759</v>
-      </c>
+      <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
